--- a/2020開発合宿/特徴量.xlsx
+++ b/2020開発合宿/特徴量.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work\LE関連\2020\開発合宿\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A56970-6B1A-488B-9018-19992359058C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06247199-EAC6-4797-A503-65B7E1B1DC96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4965" yWindow="4590" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="170">
   <si>
     <t>MSSubClass</t>
   </si>
@@ -171,12 +171,6 @@
     <t>外装材の現状</t>
   </si>
   <si>
-    <t>財団</t>
-  </si>
-  <si>
-    <t>財団の種類</t>
-  </si>
-  <si>
     <t>BsmtQual</t>
   </si>
   <si>
@@ -291,15 +285,9 @@
     <t>グレード上記ハーフ浴場</t>
   </si>
   <si>
-    <t>ベッドルーム</t>
-  </si>
-  <si>
     <t>地下階の上のベッドルームの数</t>
   </si>
   <si>
-    <t>キッチン</t>
-  </si>
-  <si>
     <t>キッチン数</t>
   </si>
   <si>
@@ -315,15 +303,9 @@
     <t>グレードを超える部屋の合計（バスルームは含まれません）</t>
   </si>
   <si>
-    <t>機能的</t>
-  </si>
-  <si>
     <t>ホーム機能の評価</t>
   </si>
   <si>
-    <t>暖炉</t>
-  </si>
-  <si>
     <t>暖炉の数</t>
   </si>
   <si>
@@ -421,9 +403,6 @@
   </si>
   <si>
     <t>プールの品質</t>
-  </si>
-  <si>
-    <t>フェンス</t>
   </si>
   <si>
     <t>フェンスの品質</t>
@@ -504,16 +483,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>欠損値補完</t>
-    <rPh sb="0" eb="3">
-      <t>ケッソンチ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ホカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ブリックタイルのタイプ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -525,13 +494,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>一個のカテゴリとする</t>
-    <rPh sb="0" eb="2">
-      <t>イッコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>地下の仕上がりの種類</t>
     <rPh sb="8" eb="10">
       <t>シュルイ</t>
@@ -551,6 +513,125 @@
   </si>
   <si>
     <t>Electrical</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0なら「平屋」というカテゴリ？</t>
+    <rPh sb="4" eb="6">
+      <t>ヒラヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BedroomAbvGr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KitchenAbvGr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NaN を一個のカテゴリとする</t>
+    <rPh sb="5" eb="7">
+      <t>イッコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前処理</t>
+    <rPh sb="0" eb="3">
+      <t>マエショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数値に変換？</t>
+    <rPh sb="0" eb="2">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数値に変換</t>
+    <rPh sb="0" eb="2">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Foundation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基礎 (土台) の種類</t>
+    <rPh sb="0" eb="2">
+      <t>キソ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ドダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Functional</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fireplaces</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0ならカテゴリを分けるか？</t>
+    <rPh sb="8" eb="9">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fence</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月はスカラー値と考えない</t>
+    <rPh sb="0" eb="1">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>景気とか関係するならカテゴリ
+ただし未知の値が来るかも</t>
+    <rPh sb="0" eb="2">
+      <t>ケイキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ミチ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -601,11 +682,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -890,10 +974,10 @@
   <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C46" sqref="C46"/>
+      <selection pane="bottomRight" activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -901,19 +985,19 @@
     <col min="1" max="1" width="14.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="18.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -932,7 +1016,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -959,18 +1043,18 @@
         <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -981,7 +1065,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -992,18 +1076,21 @@
         <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1014,7 +1101,7 @@
         <v>17</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1025,40 +1112,43 @@
         <v>19</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1069,7 +1159,7 @@
         <v>23</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1080,7 +1170,7 @@
         <v>25</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1123,7 +1213,7 @@
         <v>35</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1134,7 +1224,7 @@
         <v>37</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1145,7 +1235,7 @@
         <v>39</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1156,7 +1246,7 @@
         <v>41</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1164,13 +1254,13 @@
         <v>42</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1178,7 +1268,7 @@
         <v>43</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1189,7 +1279,10 @@
         <v>45</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1200,451 +1293,559 @@
         <v>47</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>48</v>
+        <v>161</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>49</v>
+        <v>162</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="1" t="s">
+    <row r="50" spans="1:4">
+      <c r="A50" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="1" t="s">
+    <row r="51" spans="1:4">
+      <c r="A51" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="1" t="s">
+    <row r="52" spans="1:4">
+      <c r="A52" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B51" s="1" t="s">
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="1" t="s">
+    <row r="54" spans="1:4">
+      <c r="A54" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="1" t="s">
+      <c r="C54" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="1" t="s">
+    <row r="56" spans="1:4">
+      <c r="A56" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="C56" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="1" t="s">
+    <row r="58" spans="1:4">
+      <c r="A58" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="1" t="s">
+      <c r="C58" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="1" t="s">
+      <c r="C59" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="1" t="s">
+    <row r="61" spans="1:4">
+      <c r="A61" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="1" t="s">
+      <c r="C61" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="1" t="s">
+    <row r="63" spans="1:4">
+      <c r="A63" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="1" t="s">
+    <row r="64" spans="1:4">
+      <c r="A64" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B64" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="1" t="s">
+      <c r="C64" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="1" t="s">
+      <c r="C65" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="1" t="s">
+      <c r="C66" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B67" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="1" t="s">
+      <c r="D67" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B68" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="1" t="s">
+      <c r="D68" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B69" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="1" t="s">
+      <c r="D69" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="1" t="s">
+      <c r="D70" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="1" t="s">
+      <c r="D71" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B72" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="1" t="s">
+      <c r="D72" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B73" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="1" t="s">
+      <c r="C73" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="C74" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="1" t="s">
+      <c r="B75" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="C75" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="1" t="s">
+      <c r="B76" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B73" s="1" t="s">
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="1" t="s">
+      <c r="B77" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="C77" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="33">
+      <c r="A78" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="1" t="s">
+      <c r="B78" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="C78" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="1" t="s">
+      <c r="B79" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="C79" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>145</v>
+      <c r="C80" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
